--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3376934.849908832</v>
+        <v>3481114.484359902</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>138.0402488768744</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.152727013334692</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -747,16 +749,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G3" t="n">
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>146.8428862394535</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -880,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>42.62006017122175</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>284.0663030057545</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>301.7248287451634</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>48.30573480519198</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>66.34675839663602</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,7 +1107,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>25.73684954641072</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>79.13824467254919</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>136.6897789172055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>107.7249887784314</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>9.146142788180269</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>33.38664646283072</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1613,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.930370072263</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>19.91555826189098</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>86.62626738629423</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>182.6625718220553</v>
+        <v>113.0992099793449</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>101.6969570046975</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>246.2689207886266</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2378,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2479,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>13.94435783112377</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>146.7151441592118</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560545</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>65.67353929277157</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>229.2938944146491</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2959,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>33.58398714687327</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>152.0688644383631</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3029,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>68.17501931583824</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>179.03758591542</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3269,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>73.22341869628478</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3963959210122</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3724,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>222.7171375262241</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3794,10 +3796,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3901,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>78.58522891595271</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,7 +4143,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>32.27552175740432</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>78.71385496658263</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>782.3358610545008</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539435</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2741.012457539435</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2741.012457539435</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686067</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064742</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080121</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986294</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>920.8870058181845</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C4" t="n">
-        <v>920.8870058181845</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181845</v>
+        <v>788.005982746196</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181845</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2303.170539913434</v>
+        <v>1458.811090838975</v>
       </c>
       <c r="C5" t="n">
-        <v>1934.208022973022</v>
+        <v>1089.848573898563</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>1089.848573898563</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>704.0603213003192</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.5429342656</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W5" t="n">
-        <v>2994.5429342656</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X5" t="n">
-        <v>2689.770379977556</v>
+        <v>2235.550262878909</v>
       </c>
       <c r="Y5" t="n">
-        <v>2689.770379977556</v>
+        <v>1845.410930903097</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811077</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999807</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387296</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.918960533274</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601591</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927775</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4674,16 +4676,16 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.51949026613</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>280.4189916034635</v>
+        <v>507.4345062145375</v>
       </c>
       <c r="C7" t="n">
-        <v>280.4189916034635</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="D7" t="n">
-        <v>280.4189916034635</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E7" t="n">
-        <v>280.4189916034635</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F7" t="n">
-        <v>133.5290441055531</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>133.5290441055531</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>133.5290441055531</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>729.201121645011</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="T7" t="n">
-        <v>729.201121645011</v>
+        <v>507.4345062145375</v>
       </c>
       <c r="U7" t="n">
-        <v>729.201121645011</v>
+        <v>507.4345062145375</v>
       </c>
       <c r="V7" t="n">
-        <v>729.201121645011</v>
+        <v>507.4345062145375</v>
       </c>
       <c r="W7" t="n">
-        <v>729.201121645011</v>
+        <v>507.4345062145375</v>
       </c>
       <c r="X7" t="n">
-        <v>501.2115707469936</v>
+        <v>507.4345062145375</v>
       </c>
       <c r="Y7" t="n">
-        <v>280.4189916034635</v>
+        <v>507.4345062145375</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2329.167357637081</v>
+        <v>1899.13013587303</v>
       </c>
       <c r="C8" t="n">
-        <v>1960.204840696669</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D8" t="n">
-        <v>1601.939142089919</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E8" t="n">
-        <v>1216.150889491674</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F8" t="n">
-        <v>805.1649847020669</v>
+        <v>375.1277629380157</v>
       </c>
       <c r="G8" t="n">
-        <v>390.0925345470634</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>92.50893415583062</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V8" t="n">
-        <v>3072.075344883007</v>
+        <v>2675.869307912963</v>
       </c>
       <c r="W8" t="n">
-        <v>2719.306689612893</v>
+        <v>2675.869307912963</v>
       </c>
       <c r="X8" t="n">
-        <v>2719.306689612893</v>
+        <v>2675.869307912963</v>
       </c>
       <c r="Y8" t="n">
-        <v>2329.167357637081</v>
+        <v>2285.729975937151</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4896,31 +4898,31 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>449.8213709509843</v>
+        <v>500.476813167026</v>
       </c>
       <c r="C10" t="n">
-        <v>311.7508871962312</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="D10" t="n">
-        <v>311.7508871962312</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
         <v>163.8377936138381</v>
@@ -4957,55 +4959,55 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181845</v>
+        <v>609.2899331452395</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181845</v>
+        <v>609.2899331452395</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181845</v>
+        <v>609.2899331452395</v>
       </c>
       <c r="W10" t="n">
-        <v>631.469835781224</v>
+        <v>609.2899331452395</v>
       </c>
       <c r="X10" t="n">
-        <v>631.469835781224</v>
+        <v>500.476813167026</v>
       </c>
       <c r="Y10" t="n">
-        <v>631.469835781224</v>
+        <v>500.476813167026</v>
       </c>
     </row>
     <row r="11">
@@ -5018,70 +5020,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.938859683104</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876697</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597628</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>2163.338660171577</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602305</v>
+        <v>1874.263433515775</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396418</v>
+        <v>1619.578945309888</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359457</v>
+        <v>1330.161775272927</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614396</v>
+        <v>1102.17222437491</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179095</v>
+        <v>881.3796452313796</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>484.8243144841094</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,55 +5412,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876693</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597624</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>261.8464821474266</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>113.9333885650335</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797191</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797191</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
         <v>2264.108249235165</v>
@@ -5470,16 +5472,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1667.930277414128</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1378.513107377167</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>1150.52355647915</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.547769317909</v>
+        <v>929.7309773356195</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5507,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,22 +5533,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>3210.485548300425</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>3210.485548300425</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>3445.398957336244</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>3997.308687575531</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1975.033022579363</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1685.615852542402</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,19 +5764,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>448.1846595309957</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="L21" t="n">
-        <v>943.5102657467545</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M21" t="n">
-        <v>1540.888753373306</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373306</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612593</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C22" t="n">
-        <v>411.1294017454277</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1184.944880003742</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>956.9553291057244</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5971,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,19 +5986,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6026,10 +6028,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6068,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>710.248605371872</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998424</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>721.7774158311364</v>
+        <v>962.6357307816187</v>
       </c>
       <c r="C25" t="n">
-        <v>552.8412329032295</v>
+        <v>793.6995478537118</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1124.218459804906</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>903.4258806613761</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6239,34 +6241,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C27" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D27" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797191</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468472</v>
+        <v>2567.280686761779</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>3062.606292977538</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>3482.038612289356</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>3482.038612289356</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S27" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T27" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U27" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V27" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W27" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X27" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y27" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2380.626175203724</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2380.626175203724</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>2091.550948547922</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1836.866460342035</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="29">
@@ -6455,46 +6457,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>835.5837926935562</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C31" t="n">
-        <v>666.6476097656493</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D31" t="n">
-        <v>666.6476097656493</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>518.7345161832562</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2226.312466258559</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2006.7110012815</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1717.635774625697</v>
       </c>
       <c r="V31" t="n">
-        <v>1755.431557602304</v>
+        <v>1462.95128641981</v>
       </c>
       <c r="W31" t="n">
-        <v>1466.014387565343</v>
+        <v>1173.53411638285</v>
       </c>
       <c r="X31" t="n">
-        <v>1238.024836667326</v>
+        <v>945.5445654848324</v>
       </c>
       <c r="Y31" t="n">
-        <v>1017.232257523796</v>
+        <v>724.7519863413023</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803938</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
-        <v>842.6091804069456</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>1470.207143961552</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O33" t="n">
-        <v>2022.116874200839</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2445.740023695907</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876693</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597624</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597624</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>411.9631215597624</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>244.7670222746423</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2083.262202855953</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1794.18697620015</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1539.502487994263</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.547769317909</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="35">
@@ -6929,55 +6931,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7017,25 +7019,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M36" t="n">
-        <v>738.7889117913853</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1903.498031322342</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1648.813543116455</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192508</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,28 +7253,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N39" t="n">
-        <v>1336.167399417937</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O39" t="n">
-        <v>1888.077129657224</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2311.700279152293</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2544.961939527175</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>916.2946447138415</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C40" t="n">
-        <v>747.3584617859347</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D40" t="n">
-        <v>597.2418223735989</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E40" t="n">
-        <v>449.3287287912058</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F40" t="n">
-        <v>449.3287287912058</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1102.17222437491</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138415</v>
+        <v>881.3796452313798</v>
       </c>
     </row>
     <row r="41">
@@ -7406,10 +7408,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075811</v>
@@ -7418,7 +7420,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
@@ -7427,7 +7429,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852256</v>
@@ -7442,16 +7444,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,25 +7490,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452613</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718132</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>3118.738694571971</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>2949.802511644064</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>2799.685872231729</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>2651.772778649336</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>2504.882831151425</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>4361.553595198878</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>4072.478368543076</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>3817.793880337189</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>3528.376710300228</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>3300.387159402211</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>3300.387159402211</v>
       </c>
     </row>
     <row r="44">
@@ -7634,61 +7636,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,28 +7721,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>315.9123021921476</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898186995</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373306</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612593</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P45" t="n">
         <v>2516.421633107662</v>
@@ -7780,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>950.7540666811332</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C46" t="n">
-        <v>781.8178837532263</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D46" t="n">
-        <v>631.7012443408905</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E46" t="n">
         <v>631.7012443408905</v>
@@ -7798,10 +7800,10 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
@@ -7828,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2414.36154645157</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>2125.286319795768</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1870.601831589881</v>
+        <v>1608.876909444017</v>
       </c>
       <c r="W46" t="n">
-        <v>1581.18466155292</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="X46" t="n">
-        <v>1353.195110654903</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="Y46" t="n">
-        <v>1132.402531511373</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
   </sheetData>
@@ -23416,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>139.4693302300321</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>184.0188038644575</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>165.5113759375338</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>43.04708356698185</v>
+        <v>112.6104454096922</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>65.5498640939303</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>40.25407754796439</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>134.6711151870886</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>139.4693302300323</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.352746708873</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>57.22910392194186</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>111.837060876058</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>28.95742156328154</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>72.11969353038562</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>38.36786441186828</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>212.9610556929593</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>35.12774237125669</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>2.992517862813031</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25789,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -25837,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>138.8202214113356</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>185.1299285698839</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>173.4237883572454</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>679924.6559395383</v>
+        <v>679924.6559395385</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>679924.6559395383</v>
+        <v>679924.6559395384</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>679924.6559395384</v>
+        <v>679924.6559395383</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>679924.6559395383</v>
+        <v>679924.6559395385</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>679924.6559395384</v>
+        <v>679924.6559395383</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>679924.6559395385</v>
+        <v>679924.6559395384</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>759463.6371244626</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244626</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="G2" t="n">
         <v>746610.6047132554</v>
       </c>
       <c r="H2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="I2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="J2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="K2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="L2" t="n">
         <v>746610.6047132551</v>
-      </c>
-      <c r="K2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="L2" t="n">
-        <v>746610.6047132555</v>
       </c>
       <c r="M2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132557</v>
+        <v>746610.6047132553</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073559</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405263</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405244</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.6960418673</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186741</v>
       </c>
       <c r="L4" t="n">
         <v>14826.69604186736</v>
@@ -26457,7 +26459,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="P4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186736</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-770811.7932685754</v>
+        <v>-770811.7932685758</v>
       </c>
       <c r="C6" t="n">
-        <v>557932.9524590165</v>
+        <v>557932.9524590163</v>
       </c>
       <c r="D6" t="n">
-        <v>557932.9524590168</v>
+        <v>557932.9524590163</v>
       </c>
       <c r="E6" t="n">
-        <v>305248.9170401249</v>
+        <v>305248.9170401255</v>
       </c>
       <c r="F6" t="n">
         <v>630661.378847481</v>
@@ -26537,31 +26539,31 @@
         <v>630661.378847481</v>
       </c>
       <c r="H6" t="n">
-        <v>630661.378847481</v>
+        <v>630661.3788474808</v>
       </c>
       <c r="I6" t="n">
-        <v>630661.3788474808</v>
+        <v>630661.3788474809</v>
       </c>
       <c r="J6" t="n">
-        <v>413130.1764502031</v>
+        <v>413130.1764502032</v>
       </c>
       <c r="K6" t="n">
+        <v>630661.3788474811</v>
+      </c>
+      <c r="L6" t="n">
+        <v>630661.3788474806</v>
+      </c>
+      <c r="M6" t="n">
+        <v>545606.3509119692</v>
+      </c>
+      <c r="N6" t="n">
         <v>630661.3788474809</v>
       </c>
-      <c r="L6" t="n">
-        <v>630661.3788474811</v>
-      </c>
-      <c r="M6" t="n">
-        <v>545606.350911969</v>
-      </c>
-      <c r="N6" t="n">
-        <v>630661.378847481</v>
-      </c>
       <c r="O6" t="n">
-        <v>630661.3788474811</v>
+        <v>630661.3788474805</v>
       </c>
       <c r="P6" t="n">
-        <v>630661.3788474812</v>
+        <v>630661.3788474809</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,34 +26789,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26831,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26996,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,19 +27381,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>227.2326428941331</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>377.0852116427189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.772586778758807</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27600,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>183.0895952178154</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>122.8097427359569</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>68.00627193330558</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27776,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>118.9410862934359</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>30.0056620132021</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27837,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>15.84008022651525</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>248.6140137975857</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>30.5570421814223</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28071,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>117.9846666106058</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29566,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,31 +31843,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>302.9675447508041</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>381.6404378718163</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32233,34 +32235,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162557</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>583.1096135868572</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>368.6279838366852</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>344.6306853939237</v>
+        <v>220.7280629601522</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>610.0546826043645</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>169.2687847673337</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>565.8030433278959</v>
       </c>
       <c r="N27" t="n">
-        <v>230.1272937575231</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>543.5992845760902</v>
       </c>
       <c r="M30" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>211.3773391483997</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>705.9257335045844</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>665.2579603615019</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>491.1355220041058</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>153.8606640989133</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34208,13 +34210,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
@@ -34223,13 +34225,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>653.3850396373771</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34363,10 +34365,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817577</v>
@@ -34442,16 +34444,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>209.9499448422518</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862122</v>
@@ -34463,7 +34465,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>285.8867128925984</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>160.8335108287857</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>243.7989988974573</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462684</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35965,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>440.9755796648388</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>237.2862717533519</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>206.7892464195648</v>
+        <v>82.88662398579324</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>471.5003028244903</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>27.13475084531539</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>423.6690094058777</v>
       </c>
       <c r="N27" t="n">
-        <v>98.78558167418976</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>405.0449047962161</v>
       </c>
       <c r="M30" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>71.39556506237817</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>574.5840214212511</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>522.6617159170574</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>8.181160134949316</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37856,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>110.1905571410452</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37873,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>510.7887951929326</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38011,10 +38013,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K44" t="n">
         <v>479.4543240367771</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>71.39556506237764</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38111,7 +38113,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3481114.484359902</v>
+        <v>3477101.87434591</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7854648.981454257</v>
+        <v>7854648.981454256</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>138.0402488768744</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>79.76470074482921</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -749,16 +749,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -794,7 +794,7 @@
         <v>190.7165703189231</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7871683969275</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>115.0138334144182</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>42.62006017122175</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -901,19 +901,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>271.2930916328069</v>
       </c>
       <c r="F5" t="n">
-        <v>284.0663030057545</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -955,7 +955,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>48.30573480519198</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>58.28185552386351</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>181.9348232923736</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>79.13824467254919</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>58.28185552386356</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>107.7249887784314</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>33.38664646283072</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>26.27614159852266</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,13 +1824,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>86.62626738629423</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>87.21471514852985</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>113.0992099793449</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>246.2689207886266</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>13.94435783112377</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12712756824166</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>65.67353929277157</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
-        <v>152.0688644383631</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>179.03758591542</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U37" t="n">
-        <v>73.22341869628478</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>222.7171375262241</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>26.13627195705825</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>78.58522891595271</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,13 +4194,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>78.71385496658263</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796265</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C2" t="n">
-        <v>782.3358610545008</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="D2" t="n">
-        <v>424.0701624477504</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>424.0701624477504</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4327,31 +4327,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
         <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
         <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
         <v>312.3844025601599</v>
@@ -4406,16 +4406,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4427,22 +4427,22 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>385.5649387724261</v>
+        <v>182.6877057396765</v>
       </c>
       <c r="C4" t="n">
-        <v>216.6287558445192</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W4" t="n">
-        <v>831.0565485757129</v>
+        <v>631.469835781224</v>
       </c>
       <c r="X4" t="n">
-        <v>788.005982746196</v>
+        <v>403.4802848832067</v>
       </c>
       <c r="Y4" t="n">
-        <v>567.2134036026658</v>
+        <v>182.6877057396765</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1458.811090838975</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="C5" t="n">
-        <v>1089.848573898563</v>
+        <v>758.7856865549923</v>
       </c>
       <c r="D5" t="n">
-        <v>1089.848573898563</v>
+        <v>400.5199879482417</v>
       </c>
       <c r="E5" t="n">
-        <v>704.0603213003192</v>
+        <v>126.4865620565176</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4600,19 +4600,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410103</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2609.016021139988</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2235.550262878909</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>1845.410930903097</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="6">
@@ -4622,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>507.4345062145375</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>458.6408346941415</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>458.6408346941415</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4734,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>729.2011216450114</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>507.4345062145375</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>507.4345062145375</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>507.4345062145375</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>507.4345062145375</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>507.4345062145375</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.4345062145375</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1899.13013587303</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C8" t="n">
-        <v>1530.167618932618</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>654.0504646744059</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276232</v>
+        <v>268.2622120761617</v>
       </c>
       <c r="F8" t="n">
-        <v>375.1277629380157</v>
+        <v>261.3167113269582</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>250.2846652123588</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4819,37 +4819,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794326</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2675.869307912963</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W8" t="n">
-        <v>2675.869307912963</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X8" t="n">
-        <v>2675.869307912963</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y8" t="n">
-        <v>2285.729975937151</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>500.476813167026</v>
+        <v>739.2385409879453</v>
       </c>
       <c r="C10" t="n">
-        <v>331.5406302391191</v>
+        <v>570.3023580600384</v>
       </c>
       <c r="D10" t="n">
-        <v>331.5406302391191</v>
+        <v>420.1857186477026</v>
       </c>
       <c r="E10" t="n">
-        <v>331.5406302391191</v>
+        <v>272.2726250653095</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>125.3826775673992</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>125.3826775673992</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>125.3826775673992</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757135</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757135</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>609.2899331452395</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>609.2899331452395</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>609.2899331452395</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W10" t="n">
-        <v>609.2899331452395</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X10" t="n">
-        <v>500.476813167026</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.476813167026</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="11">
@@ -5020,40 +5020,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5062,28 +5062,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>699.7311804011399</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C13" t="n">
-        <v>699.7311804011399</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6145409888042</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2163.338660171577</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1874.263433515775</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1619.578945309888</v>
+        <v>1728.890000432079</v>
       </c>
       <c r="W13" t="n">
-        <v>1330.161775272927</v>
+        <v>1439.472830395119</v>
       </c>
       <c r="X13" t="n">
-        <v>1102.17222437491</v>
+        <v>1211.483279497101</v>
       </c>
       <c r="Y13" t="n">
-        <v>881.3796452313796</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="14">
@@ -5269,19 +5269,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,34 +5293,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356195</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1667.930277414128</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1378.513107377167</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1150.52355647915</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>929.7309773356195</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5497,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5512,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3210.485548300425</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>3445.398957336244</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5712,13 +5712,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1319.459739407057</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>175.8744207939072</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5949,13 +5949,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1184.944880003742</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>956.9553291057244</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>956.9553291057244</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5971,25 +5971,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>962.6357307816187</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>793.6995478537118</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6189,10 +6189,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.284195611858</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6223,22 +6223,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>2233.355914590558</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>2567.280686761779</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>3062.606292977538</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>3482.038612289356</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>3482.038612289356</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
         <v>484.8112968429803</v>
@@ -6411,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2380.626175203724</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2380.626175203724</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>2091.550948547922</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.866460342035</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1547.449290305074</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1319.459739407057</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>1098.667160263527</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6548,16 +6548,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>724.7519863413023</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797186</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2226.312466258559</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2006.7110012815</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1717.635774625697</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1462.95128641981</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1173.53411638285</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>945.5445654848324</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>724.7519863413023</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6779,28 +6779,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>847.6442739835331</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
         <v>402.7245934908939</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2083.262202855953</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1794.18697620015</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1539.502487994263</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1250.085317957303</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1250.085317957303</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1029.292738813773</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6919,31 +6919,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6952,34 +6952,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>956.9553291057244</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1903.498031322342</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1648.813543116455</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1359.396373079494</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1359.396373079494</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1138.603793935964</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7165,19 +7165,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>699.73118040114</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>699.73118040114</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1102.17222437491</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>881.3796452313798</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,49 +7399,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3118.738694571971</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C43" t="n">
-        <v>2949.802511644064</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D43" t="n">
-        <v>2799.685872231729</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E43" t="n">
-        <v>2651.772778649336</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F43" t="n">
-        <v>2504.882831151425</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G43" t="n">
-        <v>2337.686731866305</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650996</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.932614305901</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>4361.553595198878</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>4072.478368543076</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V43" t="n">
-        <v>3817.793880337189</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W43" t="n">
-        <v>3528.376710300228</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>3300.387159402211</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y43" t="n">
-        <v>3300.387159402211</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1608.876909444017</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1319.459739407056</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1319.459739407056</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>184.0188038644575</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>225.8615017253053</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>165.5113759375338</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>112.6104454096922</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>40.25407754796439</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>134.6711151870886</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>72.11969353038617</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>115.352746708873</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,16 +24846,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
-        <v>28.95742156328154</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>38.36786441186828</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U37" t="n">
-        <v>212.9610556929593</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>2.992517862813031</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>138.8202214113356</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>173.4237883572454</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>679924.6559395385</v>
+        <v>679924.6559395384</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>679924.6559395385</v>
+        <v>679924.6559395383</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>679924.6559395385</v>
+        <v>679924.6559395384</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>679924.6559395384</v>
+        <v>679924.6559395383</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>679924.6559395384</v>
+        <v>679924.6559395383</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>679924.6559395383</v>
+        <v>679924.6559395385</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>679924.6559395384</v>
+        <v>679924.6559395383</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>759463.6371244626</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="F2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="G2" t="n">
         <v>746610.6047132552</v>
-      </c>
-      <c r="G2" t="n">
-        <v>746610.6047132554</v>
       </c>
       <c r="H2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="I2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="J2" t="n">
+        <v>746610.6047132557</v>
+      </c>
+      <c r="K2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="L2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="M2" t="n">
+        <v>746610.604713255</v>
+      </c>
+      <c r="N2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="O2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="J2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="K2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="L2" t="n">
-        <v>746610.6047132551</v>
-      </c>
-      <c r="M2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="N2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="O2" t="n">
-        <v>746610.6047132551</v>
-      </c>
       <c r="P2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93596.74410405257</v>
+      </c>
+      <c r="C4" t="n">
+        <v>93596.74410405254</v>
+      </c>
+      <c r="D4" t="n">
         <v>93596.74410405252</v>
-      </c>
-      <c r="C4" t="n">
-        <v>93596.74410405252</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93596.74410405244</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26444,7 +26444,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
         <v>14826.69604186736</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-770811.7932685758</v>
+        <v>-770811.7932685756</v>
       </c>
       <c r="C6" t="n">
-        <v>557932.9524590163</v>
+        <v>557932.9524590162</v>
       </c>
       <c r="D6" t="n">
-        <v>557932.9524590163</v>
+        <v>557932.9524590167</v>
       </c>
       <c r="E6" t="n">
-        <v>305248.9170401255</v>
+        <v>304901.5377857685</v>
       </c>
       <c r="F6" t="n">
-        <v>630661.378847481</v>
+        <v>630313.9995931238</v>
       </c>
       <c r="G6" t="n">
-        <v>630661.378847481</v>
+        <v>630313.999593124</v>
       </c>
       <c r="H6" t="n">
-        <v>630661.3788474808</v>
+        <v>630313.9995931238</v>
       </c>
       <c r="I6" t="n">
-        <v>630661.3788474809</v>
+        <v>630313.9995931238</v>
       </c>
       <c r="J6" t="n">
-        <v>413130.1764502032</v>
+        <v>412782.7971958467</v>
       </c>
       <c r="K6" t="n">
-        <v>630661.3788474811</v>
+        <v>630313.9995931237</v>
       </c>
       <c r="L6" t="n">
-        <v>630661.3788474806</v>
+        <v>630313.999593124</v>
       </c>
       <c r="M6" t="n">
-        <v>545606.3509119692</v>
+        <v>545258.9716576118</v>
       </c>
       <c r="N6" t="n">
-        <v>630661.3788474809</v>
+        <v>630313.9995931238</v>
       </c>
       <c r="O6" t="n">
-        <v>630661.3788474805</v>
+        <v>630313.9995931239</v>
       </c>
       <c r="P6" t="n">
-        <v>630661.3788474809</v>
+        <v>630313.9995931238</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022931</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>227.2326428941331</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>274.9183408758537</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27514,7 +27514,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>52.23298768420965</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>183.0895952178154</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27621,19 +27621,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>110.6372784394549</v>
       </c>
       <c r="F5" t="n">
-        <v>122.8097427359569</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>118.9410862934359</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,10 +27824,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>167.4277998651737</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>112.6729410949469</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>248.6140137975857</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>38.07056488597453</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>117.9846666106058</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31837,7 +31837,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31852,16 +31852,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496632</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N15" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32235,7 +32235,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
         <v>699.5441750817575</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32323,22 +32323,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>368.6279838366852</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32490,7 +32490,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669223</v>
@@ -32548,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>220.7280629601522</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32566,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,10 +32785,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32797,16 +32797,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,10 +33022,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33034,19 +33034,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>565.8030433278959</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33268,19 +33268,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>543.5992845760902</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33441,7 +33441,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33499,7 +33499,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>188.4731159523455</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33742,7 +33742,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>665.2579603615019</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33912,7 +33912,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33970,10 +33970,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33982,19 +33982,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>491.1355220041058</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>653.3850396373771</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34368,34 +34368,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>285.8867128925984</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35500,16 +35500,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663299</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N15" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35971,22 +35971,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>237.2862717533519</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36138,7 +36138,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>82.88662398579324</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36214,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36445,16 +36445,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>27.13475084531539</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36682,19 +36682,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>423.6690094058777</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>405.0449047962161</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37089,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>45.87687150790109</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,7 +37390,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>522.6617159170574</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37560,7 +37560,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37630,19 +37630,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>349.0014880820875</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>510.7887951929326</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3477101.87434591</v>
+        <v>3478862.404648695</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7854648.981454256</v>
+        <v>7854648.981454257</v>
       </c>
     </row>
     <row r="11">
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189239</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969275</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>115.0138334144182</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>85.67453763416975</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -904,13 +904,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>271.2930916328069</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>209.9670757563954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>12.40418031676368</v>
       </c>
       <c r="X7" t="n">
-        <v>58.28185552386351</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>181.9348232923736</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>109.6870817625072</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>58.28185552386356</v>
+        <v>58.28185552386348</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710068</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>92.20984583428664</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>26.27614159852266</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1770,10 +1770,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>70.04554881124335</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>87.21471514852985</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>148.0280580960833</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>95.12712756824166</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3237,13 +3237,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3277,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>111.321323070213</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>26.13627195705825</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4330,10 +4330,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,7 +4342,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4400,46 +4400,46 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.6877057396765</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218342</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D4" t="n">
         <v>66.51211643218342</v>
@@ -4488,52 +4488,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W4" t="n">
-        <v>631.469835781224</v>
+        <v>834.3470688139736</v>
       </c>
       <c r="X4" t="n">
-        <v>403.4802848832067</v>
+        <v>606.3575179159562</v>
       </c>
       <c r="Y4" t="n">
-        <v>182.6877057396765</v>
+        <v>385.5649387724261</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1127.748203495404</v>
+        <v>1458.811090838975</v>
       </c>
       <c r="C5" t="n">
-        <v>758.7856865549923</v>
+        <v>1089.848573898563</v>
       </c>
       <c r="D5" t="n">
-        <v>400.5199879482417</v>
+        <v>731.5828752918126</v>
       </c>
       <c r="E5" t="n">
-        <v>126.4865620565176</v>
+        <v>731.5828752918126</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073141</v>
+        <v>320.596970502205</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4567,19 +4567,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4603,16 +4603,16 @@
         <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796417</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535337</v>
+        <v>2235.550262878908</v>
       </c>
       <c r="Y5" t="n">
-        <v>1514.348043559526</v>
+        <v>1845.410930903096</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064583</v>
@@ -4649,13 +4649,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4667,31 +4667,31 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4764,13 +4764,13 @@
         <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181849</v>
+        <v>908.3575307507468</v>
       </c>
       <c r="X7" t="n">
-        <v>862.0164446829692</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1381.278680221568</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1012.316163281156</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>654.0504646744059</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>268.2622120761617</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F8" t="n">
-        <v>261.3167113269582</v>
+        <v>77.54416254678286</v>
       </c>
       <c r="G8" t="n">
-        <v>250.2846652123588</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792696</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522581</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261502</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.87852028569</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>739.2385409879453</v>
+        <v>739.2385409879452</v>
       </c>
       <c r="C10" t="n">
-        <v>570.3023580600384</v>
+        <v>570.3023580600383</v>
       </c>
       <c r="D10" t="n">
-        <v>420.1857186477026</v>
+        <v>420.1857186477025</v>
       </c>
       <c r="E10" t="n">
-        <v>272.2726250653095</v>
+        <v>272.2726250653094</v>
       </c>
       <c r="F10" t="n">
-        <v>125.3826775673992</v>
+        <v>125.382677567399</v>
       </c>
       <c r="G10" t="n">
-        <v>125.3826775673992</v>
+        <v>125.382677567399</v>
       </c>
       <c r="H10" t="n">
-        <v>125.3826775673992</v>
+        <v>125.382677567399</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>809.0422355233313</v>
+        <v>1022.872235754091</v>
       </c>
       <c r="C13" t="n">
-        <v>640.1060525954244</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>489.9894131830887</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1728.890000432079</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1439.472830395119</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="X13" t="n">
-        <v>1211.483279497101</v>
+        <v>1425.313279727861</v>
       </c>
       <c r="Y13" t="n">
-        <v>990.6907003535711</v>
+        <v>1204.520700584331</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,25 +5293,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E16" t="n">
         <v>484.8112968429802</v>
@@ -5430,58 +5430,58 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5655,16 +5655,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5980,16 +5980,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6229,7 +6229,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6885,10 +6885,10 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
         <v>1746.193029533436</v>
@@ -6925,10 +6925,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7119,10 +7119,10 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
         <v>2035.268256189238</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098237</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819168</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695811</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>516.389687887188</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>369.4997403892776</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>202.3036411041575</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783593</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640063</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7785,19 +7785,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>75.03697526434119</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>225.8615017253053</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23706,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>216.1389255780008</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>72.11969353038617</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>106.0841272570753</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>679924.6559395384</v>
+        <v>679924.6559395385</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>679924.6559395384</v>
+        <v>679924.6559395385</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>679924.6559395384</v>
+        <v>679924.6559395383</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>679924.6559395384</v>
+        <v>679924.6559395383</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>679924.6559395383</v>
+        <v>679924.6559395385</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>679924.6559395385</v>
+        <v>679924.6559395383</v>
       </c>
     </row>
     <row r="16">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244626</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
         <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244626</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="F2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="G2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="H2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="I2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132557</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="K2" t="n">
         <v>746610.6047132551</v>
@@ -26352,7 +26352,7 @@
         <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="P2" t="n">
         <v>746610.6047132552</v>
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.461807355</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93596.74410405254</v>
+      </c>
+      <c r="C4" t="n">
+        <v>93596.74410405252</v>
+      </c>
+      <c r="D4" t="n">
         <v>93596.74410405257</v>
       </c>
-      <c r="C4" t="n">
-        <v>93596.74410405254</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93596.74410405252</v>
-      </c>
       <c r="E4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418674</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418674</v>
       </c>
       <c r="G4" t="n">
         <v>14826.69604186736</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-770811.7932685756</v>
+        <v>-770811.7932685764</v>
       </c>
       <c r="C6" t="n">
-        <v>557932.9524590162</v>
+        <v>557932.9524590167</v>
       </c>
       <c r="D6" t="n">
-        <v>557932.9524590167</v>
+        <v>557932.9524590168</v>
       </c>
       <c r="E6" t="n">
-        <v>304901.5377857685</v>
+        <v>305214.17911469</v>
       </c>
       <c r="F6" t="n">
-        <v>630313.9995931238</v>
+        <v>630626.640922045</v>
       </c>
       <c r="G6" t="n">
-        <v>630313.999593124</v>
+        <v>630626.640922045</v>
       </c>
       <c r="H6" t="n">
-        <v>630313.9995931238</v>
+        <v>630626.6409220451</v>
       </c>
       <c r="I6" t="n">
-        <v>630313.9995931238</v>
+        <v>630626.640922045</v>
       </c>
       <c r="J6" t="n">
-        <v>412782.7971958467</v>
+        <v>413095.4385247679</v>
       </c>
       <c r="K6" t="n">
-        <v>630313.9995931237</v>
+        <v>630626.640922045</v>
       </c>
       <c r="L6" t="n">
-        <v>630313.999593124</v>
+        <v>630626.6409220453</v>
       </c>
       <c r="M6" t="n">
-        <v>545258.9716576118</v>
+        <v>545571.6129865331</v>
       </c>
       <c r="N6" t="n">
-        <v>630313.9995931238</v>
+        <v>630626.6409220451</v>
       </c>
       <c r="O6" t="n">
-        <v>630313.9995931239</v>
+        <v>630626.6409220451</v>
       </c>
       <c r="P6" t="n">
-        <v>630313.9995931238</v>
+        <v>630626.6409220451</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.916333841085361e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.916333841085361e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.916333841085361e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.916333841085361e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.916333841085361e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26795,13 +26795,13 @@
         <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.916333841085361e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483752</v>
+      </c>
+      <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483757</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.916333841085361e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27514,7 +27514,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27539,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>52.23298768420965</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>200.8484607024212</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27624,13 +27624,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>110.6372784394549</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>200.954649897058</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27675,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>274.1188180198273</v>
       </c>
       <c r="X7" t="n">
-        <v>167.4277998651737</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>112.6729410949469</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27912,7 +27912,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>218.0651767076277</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>38.07056488597453</v>
+        <v>38.07056488597461</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>7.868239393360454e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>444.2274915982891</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32247,7 +32247,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
         <v>926.5868626460027</v>
@@ -32490,7 +32490,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669223</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>302.0934576762708</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35895,7 +35895,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O17" t="n">
         <v>696.488651224316</v>
@@ -36138,7 +36138,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
